--- a/data/financial-data.xlsx
+++ b/data/financial-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarveshphoenix/Documents/Projects/Applications/Hackathons/DataHack2022-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6E1B1C4E-8AE5-374D-AA9B-A3C7C1BD0DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5423CA7-1D28-324E-BC9B-AEA7336A1ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{2166218D-C3B5-2C4A-BF0E-00590AF1FD57}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Funding" sheetId="1" r:id="rId1"/>
     <sheet name="Deal Term" sheetId="2" r:id="rId2"/>
     <sheet name="Investors" sheetId="3" r:id="rId3"/>
-    <sheet name="financial-data" sheetId="4" r:id="rId4"/>
+    <sheet name="Competitors" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -347,14 +347,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -679,181 +679,181 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>41100</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>41533</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>32.748849849999999</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>32.748849849999999</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>41198</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>20.27</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>20.27</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>42762</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
@@ -885,117 +885,117 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>41533</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>24.748849849999999</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>32.748849849999999</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>8</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>5373983</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>2.2671000000000001</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>2.2671000000000001</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>41198</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>16.27</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>20.27</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1015,222 +1015,222 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>41198</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>41198</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>41533</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>41533</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>41533</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>41533</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>41533</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>41533</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>41198</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>41198</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>41198</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>41198</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>41100</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>41198</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>41533</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>41533</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>41533</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>41533</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>42762</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>42762</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1244,188 +1244,188 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>229.2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>496.55</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>1326.02</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>710</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>59.93</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>2.88</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>590</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>73.900000000000006</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>480</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>510</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
